--- a/code/df_full_right.xlsx
+++ b/code/df_full_right.xlsx
@@ -13,7 +13,1057 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>IV-doors</t>
   </si>
@@ -345,214 +1395,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>355</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>357</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>358</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>359</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>365</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>367</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>371</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>373</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>374</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>376</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>377</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>33</v>
+        <v>383</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>34</v>
+        <v>384</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>35</v>
+        <v>385</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>39</v>
+        <v>389</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>43</v>
+        <v>393</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>54</v>
+        <v>404</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>56</v>
+        <v>406</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>58</v>
+        <v>408</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>59</v>
+        <v>409</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>60</v>
+        <v>410</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>61</v>
+        <v>411</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>63</v>
+        <v>413</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>66</v>
+        <v>416</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>68</v>
+        <v>418</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>69</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_right.xlsx
+++ b/code/df_full_right.xlsx
@@ -13,7 +13,427 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>IV-doors</t>
   </si>
@@ -1815,214 +2235,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>490</v>
+        <v>630</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>491</v>
+        <v>631</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>492</v>
+        <v>632</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>493</v>
+        <v>633</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>494</v>
+        <v>634</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>495</v>
+        <v>635</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>496</v>
+        <v>636</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>497</v>
+        <v>637</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>498</v>
+        <v>638</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>499</v>
+        <v>639</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>501</v>
+        <v>641</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>502</v>
+        <v>642</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>503</v>
+        <v>643</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>504</v>
+        <v>644</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>505</v>
+        <v>645</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>506</v>
+        <v>646</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>507</v>
+        <v>647</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>508</v>
+        <v>648</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>509</v>
+        <v>649</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>510</v>
+        <v>650</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>511</v>
+        <v>651</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>512</v>
+        <v>652</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>513</v>
+        <v>653</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>514</v>
+        <v>654</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>515</v>
+        <v>655</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>516</v>
+        <v>656</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>517</v>
+        <v>657</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>518</v>
+        <v>658</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>519</v>
+        <v>659</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>520</v>
+        <v>660</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>521</v>
+        <v>661</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>523</v>
+        <v>663</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>524</v>
+        <v>664</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>525</v>
+        <v>665</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>526</v>
+        <v>666</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>527</v>
+        <v>667</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>528</v>
+        <v>668</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>530</v>
+        <v>670</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>531</v>
+        <v>671</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>532</v>
+        <v>672</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>534</v>
+        <v>674</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>535</v>
+        <v>675</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>537</v>
+        <v>677</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>538</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>539</v>
+        <v>679</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>540</v>
+        <v>680</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>541</v>
+        <v>681</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>542</v>
+        <v>682</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>543</v>
+        <v>683</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>544</v>
+        <v>684</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>545</v>
+        <v>685</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>546</v>
+        <v>686</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>547</v>
+        <v>687</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>548</v>
+        <v>688</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>549</v>
+        <v>689</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>550</v>
+        <v>690</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>551</v>
+        <v>691</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>552</v>
+        <v>692</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>553</v>
+        <v>693</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>554</v>
+        <v>694</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>556</v>
+        <v>696</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>557</v>
+        <v>697</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>558</v>
+        <v>698</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>559</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_right.xlsx
+++ b/code/df_full_right.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="3951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="4164">
   <si>
     <t>IV-doors</t>
   </si>
@@ -5476,6 +5476,645 @@
   </si>
   <si>
     <t>Subs</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
   </si>
   <si>
     <t>Subs</t>
@@ -11989,217 +12628,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3880</v>
+        <v>4093</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3881</v>
+        <v>4094</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3882</v>
+        <v>4095</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3883</v>
+        <v>4096</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3884</v>
+        <v>4097</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3885</v>
+        <v>4098</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3886</v>
+        <v>4099</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3887</v>
+        <v>4100</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3888</v>
+        <v>4101</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3889</v>
+        <v>4102</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3890</v>
+        <v>4103</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3891</v>
+        <v>4104</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3892</v>
+        <v>4105</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3893</v>
+        <v>4106</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3894</v>
+        <v>4107</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3895</v>
+        <v>4108</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3896</v>
+        <v>4109</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3897</v>
+        <v>4110</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3898</v>
+        <v>4111</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3899</v>
+        <v>4112</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3900</v>
+        <v>4113</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3901</v>
+        <v>4114</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3902</v>
+        <v>4115</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3903</v>
+        <v>4116</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3904</v>
+        <v>4117</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3905</v>
+        <v>4118</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>3906</v>
+        <v>4119</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>3907</v>
+        <v>4120</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>3908</v>
+        <v>4121</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>3909</v>
+        <v>4122</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>3910</v>
+        <v>4123</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>3911</v>
+        <v>4124</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>3912</v>
+        <v>4125</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>3913</v>
+        <v>4126</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>3914</v>
+        <v>4127</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>3915</v>
+        <v>4128</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>3916</v>
+        <v>4129</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>3917</v>
+        <v>4130</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>3918</v>
+        <v>4131</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>3919</v>
+        <v>4132</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>3920</v>
+        <v>4133</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>3921</v>
+        <v>4134</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>3922</v>
+        <v>4135</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>3923</v>
+        <v>4136</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>3924</v>
+        <v>4137</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>3925</v>
+        <v>4138</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>3926</v>
+        <v>4139</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>3927</v>
+        <v>4140</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>3928</v>
+        <v>4141</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>3929</v>
+        <v>4142</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>3930</v>
+        <v>4143</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>3931</v>
+        <v>4144</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>3932</v>
+        <v>4145</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>3933</v>
+        <v>4146</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>3934</v>
+        <v>4147</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>3935</v>
+        <v>4148</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>3936</v>
+        <v>4149</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>3937</v>
+        <v>4150</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>3938</v>
+        <v>4151</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>3939</v>
+        <v>4152</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>3940</v>
+        <v>4153</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>3941</v>
+        <v>4154</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>3942</v>
+        <v>4155</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>3943</v>
+        <v>4156</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>3944</v>
+        <v>4157</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>3945</v>
+        <v>4158</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>3946</v>
+        <v>4159</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>3947</v>
+        <v>4160</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>3948</v>
+        <v>4161</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>3949</v>
+        <v>4162</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>3950</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_right.xlsx
+++ b/code/df_full_right.xlsx
@@ -13,7 +13,433 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>Subs</t>
   </si>
@@ -1627,217 +2053,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>426</v>
+        <v>568</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>427</v>
+        <v>569</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>428</v>
+        <v>570</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>429</v>
+        <v>571</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>430</v>
+        <v>572</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>431</v>
+        <v>573</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>432</v>
+        <v>574</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>433</v>
+        <v>575</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>434</v>
+        <v>576</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>435</v>
+        <v>577</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>436</v>
+        <v>578</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>437</v>
+        <v>579</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>438</v>
+        <v>580</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>439</v>
+        <v>581</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>440</v>
+        <v>582</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>441</v>
+        <v>583</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>442</v>
+        <v>584</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>443</v>
+        <v>585</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>445</v>
+        <v>587</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>446</v>
+        <v>588</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>447</v>
+        <v>589</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>448</v>
+        <v>590</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>449</v>
+        <v>591</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>450</v>
+        <v>592</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>451</v>
+        <v>593</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>453</v>
+        <v>595</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>454</v>
+        <v>596</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>455</v>
+        <v>597</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>457</v>
+        <v>599</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>459</v>
+        <v>601</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>460</v>
+        <v>602</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>461</v>
+        <v>603</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>462</v>
+        <v>604</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>463</v>
+        <v>605</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>464</v>
+        <v>606</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>465</v>
+        <v>607</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>466</v>
+        <v>608</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>467</v>
+        <v>609</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>469</v>
+        <v>611</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>470</v>
+        <v>612</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>471</v>
+        <v>613</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>472</v>
+        <v>614</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>473</v>
+        <v>615</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>474</v>
+        <v>616</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>475</v>
+        <v>617</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>476</v>
+        <v>618</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>477</v>
+        <v>619</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>478</v>
+        <v>620</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>480</v>
+        <v>622</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>481</v>
+        <v>623</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>482</v>
+        <v>624</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>484</v>
+        <v>626</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>485</v>
+        <v>627</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>486</v>
+        <v>628</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>487</v>
+        <v>629</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>488</v>
+        <v>630</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>489</v>
+        <v>631</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>490</v>
+        <v>632</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>491</v>
+        <v>633</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>492</v>
+        <v>634</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>493</v>
+        <v>635</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>494</v>
+        <v>636</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>495</v>
+        <v>637</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>496</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_right.xlsx
+++ b/code/df_full_right.xlsx
@@ -13,7 +13,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="710">
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>Subs</t>
   </si>
@@ -2053,217 +2266,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_right.xlsx
+++ b/code/df_full_right.xlsx
@@ -13,7 +13,1072 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="1065">
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>Subs</t>
   </si>
@@ -2266,217 +3331,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>639</v>
+        <v>994</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>640</v>
+        <v>995</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>641</v>
+        <v>996</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>642</v>
+        <v>997</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>643</v>
+        <v>998</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>644</v>
+        <v>999</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>645</v>
+        <v>1000</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>646</v>
+        <v>1001</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>647</v>
+        <v>1002</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>648</v>
+        <v>1003</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>649</v>
+        <v>1004</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>650</v>
+        <v>1005</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>651</v>
+        <v>1006</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>652</v>
+        <v>1007</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>653</v>
+        <v>1008</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>654</v>
+        <v>1009</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>655</v>
+        <v>1010</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>656</v>
+        <v>1011</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>657</v>
+        <v>1012</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>658</v>
+        <v>1013</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>659</v>
+        <v>1014</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>660</v>
+        <v>1015</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>661</v>
+        <v>1016</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>662</v>
+        <v>1017</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>663</v>
+        <v>1018</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>664</v>
+        <v>1019</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>665</v>
+        <v>1020</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>666</v>
+        <v>1021</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>667</v>
+        <v>1022</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>668</v>
+        <v>1023</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>669</v>
+        <v>1024</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>670</v>
+        <v>1025</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>671</v>
+        <v>1026</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>672</v>
+        <v>1027</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>673</v>
+        <v>1028</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>674</v>
+        <v>1029</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>675</v>
+        <v>1030</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>676</v>
+        <v>1031</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>677</v>
+        <v>1032</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>678</v>
+        <v>1033</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>679</v>
+        <v>1034</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>680</v>
+        <v>1035</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>681</v>
+        <v>1036</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>682</v>
+        <v>1037</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>683</v>
+        <v>1038</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>684</v>
+        <v>1039</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>685</v>
+        <v>1040</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>686</v>
+        <v>1041</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>687</v>
+        <v>1042</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>688</v>
+        <v>1043</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>689</v>
+        <v>1044</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>690</v>
+        <v>1045</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>691</v>
+        <v>1046</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>692</v>
+        <v>1047</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>693</v>
+        <v>1048</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>694</v>
+        <v>1049</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>695</v>
+        <v>1050</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>696</v>
+        <v>1051</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>697</v>
+        <v>1052</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>698</v>
+        <v>1053</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>699</v>
+        <v>1054</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>700</v>
+        <v>1055</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>701</v>
+        <v>1056</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>702</v>
+        <v>1057</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>703</v>
+        <v>1058</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>704</v>
+        <v>1059</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>705</v>
+        <v>1060</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>706</v>
+        <v>1061</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>707</v>
+        <v>1062</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>708</v>
+        <v>1063</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>709</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="2">

--- a/code/df_full_right.xlsx
+++ b/code/df_full_right.xlsx
@@ -13,7 +13,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1136">
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>IV-doors</t>
+  </si>
+  <si>
+    <t>IV-socialdoors</t>
+  </si>
+  <si>
+    <t>IV-ugdg</t>
+  </si>
+  <si>
+    <t>IV-mid</t>
+  </si>
+  <si>
+    <t>IV-sharedreward</t>
+  </si>
+  <si>
+    <t>V-doors</t>
+  </si>
+  <si>
+    <t>V-socialdoors</t>
+  </si>
+  <si>
+    <t>V-ugdg</t>
+  </si>
+  <si>
+    <t>V-mid</t>
+  </si>
+  <si>
+    <t>V-sharedreward</t>
+  </si>
+  <si>
+    <t>VI-doors</t>
+  </si>
+  <si>
+    <t>VI-socialdoors</t>
+  </si>
+  <si>
+    <t>VI-ugdg</t>
+  </si>
+  <si>
+    <t>VI-mid</t>
+  </si>
+  <si>
+    <t>VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-I-doors</t>
+  </si>
+  <si>
+    <t>Crus-I-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-I-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-I-mid</t>
+  </si>
+  <si>
+    <t>Crus-I-sharedreward</t>
+  </si>
+  <si>
+    <t>Crus-II-doors</t>
+  </si>
+  <si>
+    <t>Crus-II-socialdoors</t>
+  </si>
+  <si>
+    <t>Crus-II-ugdg</t>
+  </si>
+  <si>
+    <t>Crus-II-mid</t>
+  </si>
+  <si>
+    <t>Crus-II-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIa-doors</t>
+  </si>
+  <si>
+    <t>VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIa-mid</t>
+  </si>
+  <si>
+    <t>VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>VIIIb-doors</t>
+  </si>
+  <si>
+    <t>VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>VIIIb-mid</t>
+  </si>
+  <si>
+    <t>VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>IX-doors</t>
+  </si>
+  <si>
+    <t>IX-socialdoors</t>
+  </si>
+  <si>
+    <t>IX-ugdg</t>
+  </si>
+  <si>
+    <t>IX-mid</t>
+  </si>
+  <si>
+    <t>IX-sharedreward</t>
+  </si>
+  <si>
+    <t>X-doors</t>
+  </si>
+  <si>
+    <t>X-socialdoors</t>
+  </si>
+  <si>
+    <t>X-ugdg</t>
+  </si>
+  <si>
+    <t>X-mid</t>
+  </si>
+  <si>
+    <t>X-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VI-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VI-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VI-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VI-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIa-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-doors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-mid</t>
+  </si>
+  <si>
+    <t>Vermis-VIIIb-sharedreward</t>
+  </si>
+  <si>
+    <t>Vermis-IX-doors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-socialdoors</t>
+  </si>
+  <si>
+    <t>Vermis-IX-ugdg</t>
+  </si>
+  <si>
+    <t>Vermis-IX-mid</t>
+  </si>
+  <si>
+    <t>Vermis-IX-sharedreward</t>
+  </si>
   <si>
     <t>Subs</t>
   </si>
@@ -3331,217 +3544,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>994</v>
+        <v>1065</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>995</v>
+        <v>1066</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>997</v>
+        <v>1068</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>998</v>
+        <v>1069</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>999</v>
+        <v>1070</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1001</v>
+        <v>1072</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1002</v>
+        <v>1073</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1003</v>
+        <v>1074</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1004</v>
+        <v>1075</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1005</v>
+        <v>1076</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1006</v>
+        <v>1077</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1007</v>
+        <v>1078</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1008</v>
+        <v>1079</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1009</v>
+        <v>1080</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1010</v>
+        <v>1081</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1011</v>
+        <v>1082</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1012</v>
+        <v>1083</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1013</v>
+        <v>1084</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1014</v>
+        <v>1085</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1015</v>
+        <v>1086</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1016</v>
+        <v>1087</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1017</v>
+        <v>1088</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1018</v>
+        <v>1089</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1019</v>
+        <v>1090</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1020</v>
+        <v>1091</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1021</v>
+        <v>1092</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1022</v>
+        <v>1093</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1023</v>
+        <v>1094</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1024</v>
+        <v>1095</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1025</v>
+        <v>1096</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1026</v>
+        <v>1097</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>1027</v>
+        <v>1098</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>1028</v>
+        <v>1099</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>1029</v>
+        <v>1100</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>1030</v>
+        <v>1101</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>1031</v>
+        <v>1102</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>1032</v>
+        <v>1103</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>1033</v>
+        <v>1104</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>1034</v>
+        <v>1105</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>1035</v>
+        <v>1106</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>1036</v>
+        <v>1107</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>1037</v>
+        <v>1108</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>1038</v>
+        <v>1109</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>1039</v>
+        <v>1110</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>1040</v>
+        <v>1111</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>1041</v>
+        <v>1112</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>1042</v>
+        <v>1113</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>1043</v>
+        <v>1114</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>1044</v>
+        <v>1115</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>1045</v>
+        <v>1116</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>1046</v>
+        <v>1117</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>1047</v>
+        <v>1118</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>1048</v>
+        <v>1119</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>1049</v>
+        <v>1120</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>1050</v>
+        <v>1121</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>1051</v>
+        <v>1122</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>1052</v>
+        <v>1123</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>1053</v>
+        <v>1124</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>1054</v>
+        <v>1125</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>1055</v>
+        <v>1126</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>1056</v>
+        <v>1127</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>1057</v>
+        <v>1128</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>1058</v>
+        <v>1129</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>1059</v>
+        <v>1130</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>1060</v>
+        <v>1131</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>1061</v>
+        <v>1132</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>1062</v>
+        <v>1133</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>1063</v>
+        <v>1134</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>1064</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2">
